--- a/z_db/Data/kelasMapel/xii/rpl1.xlsx
+++ b/z_db/Data/kelasMapel/xii/rpl1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\ketuntasan\z_db\Data\kelasMapel\xii\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B9D110A-AA2E-41D1-86CC-6A9A59DCA0A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3CAC8B38-65D1-4FEF-91D7-76254A88C30C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{15AB2BBF-ED13-4B5E-B4AF-6647F79E46D6}"/>
   </bookViews>
@@ -510,7 +510,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
